--- a/3rd_Project/Category/Book/기능,화면,테스트 문서/테스트 시나리오(유의).xlsx
+++ b/3rd_Project/Category/Book/기능,화면,테스트 문서/테스트 시나리오(유의).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="416">
   <si>
     <t>[문제은행 사이트].[교재구매]</t>
   </si>
@@ -155,13 +155,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
       <t xml:space="preserve">교재의 수량을 입력
 </t>
     </r>
@@ -193,11 +186,11 @@
         <rFont val="맑은 고딕"/>
         <charset val="129"/>
       </rPr>
-      <t>1) 입력상자에 숫자 1을 입력한다.</t>
+      <t>1) 입력상자에 숫자 2를 입력한다.</t>
     </r>
   </si>
   <si>
-    <t>1) 수량 1이 입력된다.</t>
+    <t>1) 수량 2가 입력된다.</t>
   </si>
   <si>
     <t>1)</t>
@@ -315,13 +308,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <charset val="129"/>
-      </rPr>
       <t xml:space="preserve">교재의 수량을 입력
 </t>
     </r>
@@ -1139,9 +1125,6 @@
     </r>
   </si>
   <si>
-    <t>1) 수량 2가 입력된다.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1)    </t>
   </si>
   <si>
@@ -1197,6 +1180,49 @@
   </si>
   <si>
     <t xml:space="preserve">1)                                   2) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">교재의 수량을 입력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">- 수량 입력시 0 이하의 경계값 판별 여부
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1) 입력상자에 수량 0을 입력한다.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">1) </t>
@@ -1557,6 +1583,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <charset val="129"/>
+      </rPr>
       <t xml:space="preserve">주문결제 페이지로 이동
 </t>
     </r>
@@ -2760,6 +2793,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <charset val="129"/>
+      </rPr>
       <t xml:space="preserve">교재의 이미지와 상품명을 입력
 </t>
     </r>
@@ -2845,6 +2885,9 @@
       </rPr>
       <t>1) 주문결제 페이지를 로딩한다.</t>
     </r>
+  </si>
+  <si>
+    <t>1) 수량 1이 입력된다.</t>
   </si>
   <si>
     <t>F-BP-BO-PL-03</t>
@@ -4455,6 +4498,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <charset val="129"/>
+      </rPr>
       <t xml:space="preserve">주문결제 페이지 배송정보의 이름을 입력
 </t>
     </r>
@@ -4500,6 +4550,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <charset val="129"/>
+      </rPr>
       <t xml:space="preserve">주문결제 페이지 배송정보의 연락처를 입력
 </t>
     </r>
@@ -4546,6 +4603,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <charset val="129"/>
+      </rPr>
       <t xml:space="preserve">주문결제 페이지 배송정보의 주소를 입력
 </t>
     </r>
@@ -4592,6 +4656,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <charset val="129"/>
+      </rPr>
       <t xml:space="preserve">주문결제 페이지 배송정보의 배송시 요청사항을 입력
 </t>
     </r>
@@ -4644,6 +4715,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <charset val="129"/>
+      </rPr>
       <t xml:space="preserve">주문결제 페이지의 결제정보를 입력
 </t>
     </r>
@@ -4689,6 +4767,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <charset val="129"/>
+      </rPr>
       <t xml:space="preserve">주문결제 페이지의 결제정보를 입력
 </t>
     </r>
@@ -4731,6 +4816,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <charset val="129"/>
+      </rPr>
       <t xml:space="preserve">주문결제 페이지의 결제정보를 입력
 </t>
     </r>
@@ -4773,6 +4865,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <charset val="129"/>
+      </rPr>
       <t xml:space="preserve">주문결제 페이지의 최종결제금액을 입력
 </t>
     </r>
@@ -4818,6 +4917,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <charset val="129"/>
+      </rPr>
       <t xml:space="preserve">체크박스 체크
 </t>
     </r>
@@ -4838,10 +4944,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -5007,6 +5113,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -5015,9 +5196,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5046,108 +5249,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5178,13 +5284,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5202,13 +5332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5226,13 +5350,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5250,55 +5404,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5316,49 +5458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5808,21 +5914,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -5830,6 +5921,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5849,6 +5949,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5860,15 +5993,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5887,30 +6011,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5928,130 +6034,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -21430,8 +21536,8 @@
   <sheetPr/>
   <dimension ref="A1:M246"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M1"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -25879,8 +25985,8 @@
   <sheetPr/>
   <dimension ref="A1:M250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58:K58"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -26305,7 +26411,7 @@
       <c r="D23" s="253"/>
       <c r="E23" s="254"/>
       <c r="F23" s="255" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="G23" s="256"/>
       <c r="H23" s="256"/>
@@ -26324,7 +26430,7 @@
       <c r="D24" s="263"/>
       <c r="E24" s="263"/>
       <c r="F24" s="261" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G24" s="262"/>
       <c r="H24" s="262"/>
@@ -26340,12 +26446,12 @@
         <v>46</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="253"/>
       <c r="E25" s="254"/>
       <c r="F25" s="255" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G25" s="256"/>
       <c r="H25" s="256"/>
@@ -26359,14 +26465,14 @@
       <c r="A26" s="257"/>
       <c r="B26" s="258"/>
       <c r="C26" s="240" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="264" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G26" s="265" t="s">
         <v>34</v>
@@ -26403,14 +26509,14 @@
       <c r="A28" s="257"/>
       <c r="B28" s="258"/>
       <c r="C28" s="240" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="35" t="s">
         <v>34</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="264" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G28" s="265" t="s">
         <v>34</v>
@@ -26428,7 +26534,7 @@
         <v>53</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D29" s="253"/>
       <c r="E29" s="254"/>
@@ -26679,7 +26785,7 @@
       <c r="A42" s="271"/>
       <c r="B42" s="258"/>
       <c r="C42" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" s="267" t="s">
         <v>34</v>
@@ -26738,14 +26844,14 @@
       <c r="A45" s="271"/>
       <c r="B45" s="258"/>
       <c r="C45" s="240" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D45" s="35" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="277" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G45" s="278" t="s">
         <v>34</v>
@@ -26782,7 +26888,7 @@
       <c r="A47" s="271"/>
       <c r="B47" s="258"/>
       <c r="C47" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" s="267" t="s">
         <v>34</v>
@@ -26841,7 +26947,7 @@
       <c r="A50" s="271"/>
       <c r="B50" s="258"/>
       <c r="C50" s="240" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" s="35" t="s">
         <v>34</v>
@@ -26934,7 +27040,7 @@
       <c r="D54" s="263"/>
       <c r="E54" s="263"/>
       <c r="F54" s="265" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G54" s="275"/>
       <c r="H54" s="276"/>
@@ -26974,7 +27080,7 @@
       <c r="D56" s="263"/>
       <c r="E56" s="263"/>
       <c r="F56" s="265" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G56" s="275"/>
       <c r="H56" s="276"/>
@@ -27096,7 +27202,7 @@
       <c r="D62" s="263"/>
       <c r="E62" s="263"/>
       <c r="F62" s="265" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G62" s="275"/>
       <c r="H62" s="276"/>
@@ -31203,7 +31309,7 @@
       </c>
       <c r="E34" s="239"/>
       <c r="F34" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="240" t="s">
@@ -31247,7 +31353,7 @@
       <c r="D36" s="60"/>
       <c r="E36" s="61"/>
       <c r="F36" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G36" s="36"/>
       <c r="H36" s="37"/>
@@ -31289,7 +31395,7 @@
       <c r="D38" s="60"/>
       <c r="E38" s="61"/>
       <c r="F38" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G38" s="42"/>
       <c r="H38" s="43"/>
@@ -39335,7 +39441,7 @@
       <c r="D17" s="26"/>
       <c r="E17" s="27"/>
       <c r="F17" s="28" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
@@ -39366,18 +39472,18 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A19" s="23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
       <c r="F19" s="28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
@@ -39453,18 +39559,18 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A24" s="56" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -39495,18 +39601,18 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A26" s="56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C26" s="107" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D26" s="99"/>
       <c r="E26" s="100"/>
       <c r="F26" s="28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
@@ -39552,18 +39658,18 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A29" s="56" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B29" s="57" t="s">
         <v>175</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D29" s="99"/>
       <c r="E29" s="100"/>
       <c r="F29" s="28" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
@@ -42884,7 +42990,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -42949,7 +43055,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -43110,18 +43216,18 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="79.95" customHeight="1" spans="1:13">
       <c r="A15" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="27"/>
       <c r="F15" s="28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -43152,18 +43258,18 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A17" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="27"/>
       <c r="F17" s="28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
@@ -43194,18 +43300,18 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A19" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
       <c r="F19" s="28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
@@ -43281,18 +43387,18 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A24" s="56" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -43323,18 +43429,18 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A26" s="56" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="27"/>
       <c r="F26" s="28" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
@@ -43380,18 +43486,18 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A29" s="56" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="27"/>
       <c r="F29" s="28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
@@ -43452,18 +43558,18 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A33" s="56" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B33" s="96" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="27"/>
       <c r="F33" s="28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
@@ -43509,18 +43615,18 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A36" s="56" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="27"/>
       <c r="F36" s="28" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
@@ -43581,18 +43687,18 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A40" s="83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C40" s="84" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D40" s="85"/>
       <c r="E40" s="85"/>
       <c r="F40" s="145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
@@ -43623,18 +43729,18 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A42" s="83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C42" s="84" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D42" s="85"/>
       <c r="E42" s="85"/>
       <c r="F42" s="145" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
@@ -43665,18 +43771,18 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A44" s="83" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C44" s="84" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D44" s="85"/>
       <c r="E44" s="85"/>
       <c r="F44" s="145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
@@ -43707,18 +43813,18 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A46" s="83" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C46" s="84" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D46" s="85"/>
       <c r="E46" s="85"/>
       <c r="F46" s="145" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
@@ -43749,18 +43855,18 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A48" s="83" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C48" s="84" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D48" s="85"/>
       <c r="E48" s="85"/>
       <c r="F48" s="145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
@@ -43791,18 +43897,18 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A50" s="83" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B50" s="57" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C50" s="84" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D50" s="85"/>
       <c r="E50" s="85"/>
       <c r="F50" s="145" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
@@ -46838,7 +46944,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -46903,7 +47009,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -47064,18 +47170,18 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="79.95" customHeight="1" spans="1:13">
       <c r="A15" s="23" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="27"/>
       <c r="F15" s="28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -47106,18 +47212,18 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A17" s="23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="27"/>
       <c r="F17" s="28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
@@ -47148,18 +47254,18 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A19" s="23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
       <c r="F19" s="28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
@@ -47235,18 +47341,18 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A24" s="56" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="28" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -47277,18 +47383,18 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="150" customHeight="1" spans="1:13">
       <c r="A26" s="56" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D26" s="99"/>
       <c r="E26" s="100"/>
       <c r="F26" s="28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
@@ -47355,18 +47461,18 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A30" s="83" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B30" s="106" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C30" s="107" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D30" s="99"/>
       <c r="E30" s="100"/>
       <c r="F30" s="28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
@@ -47397,18 +47503,18 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="120" customHeight="1" spans="1:13">
       <c r="A32" s="56" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C32" s="107" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D32" s="99"/>
       <c r="E32" s="100"/>
       <c r="F32" s="28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
@@ -47458,18 +47564,18 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="120" customHeight="1" spans="1:13">
       <c r="A35" s="56" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B35" s="113" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D35" s="99"/>
       <c r="E35" s="100"/>
       <c r="F35" s="28" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
@@ -47500,18 +47606,18 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="150" customHeight="1" spans="1:13">
       <c r="A37" s="56" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C37" s="107" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D37" s="99"/>
       <c r="E37" s="100"/>
       <c r="F37" s="28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
@@ -47576,18 +47682,18 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A41" s="59" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" s="113" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C41" s="107" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D41" s="99"/>
       <c r="E41" s="100"/>
       <c r="F41" s="28" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
@@ -47618,18 +47724,18 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A43" s="59" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B43" s="113" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C43" s="107" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D43" s="99"/>
       <c r="E43" s="100"/>
       <c r="F43" s="28" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
@@ -47660,18 +47766,18 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="130" customHeight="1" spans="1:13">
       <c r="A45" s="56" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B45" s="113" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C45" s="107" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D45" s="99"/>
       <c r="E45" s="100"/>
       <c r="F45" s="28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
@@ -47690,7 +47796,7 @@
       <c r="D46" s="42"/>
       <c r="E46" s="101"/>
       <c r="F46" s="42" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G46" s="42"/>
       <c r="H46" s="43"/>
@@ -47704,7 +47810,7 @@
       <c r="A47" s="59"/>
       <c r="B47" s="117"/>
       <c r="C47" s="89" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D47" s="89"/>
       <c r="E47" s="89"/>
@@ -47738,18 +47844,18 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A49" s="56" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C49" s="107" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D49" s="99"/>
       <c r="E49" s="100"/>
       <c r="F49" s="28" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
@@ -47780,18 +47886,18 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="120" customHeight="1" spans="1:13">
       <c r="A51" s="56" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C51" s="107" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D51" s="99"/>
       <c r="E51" s="100"/>
       <c r="F51" s="28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
@@ -47841,18 +47947,18 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A54" s="83" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B54" s="113" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C54" s="107" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D54" s="99"/>
       <c r="E54" s="100"/>
       <c r="F54" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
@@ -47883,18 +47989,18 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="110" customHeight="1" spans="1:13">
       <c r="A56" s="59" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C56" s="107" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D56" s="99"/>
       <c r="E56" s="100"/>
       <c r="F56" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
@@ -47908,7 +48014,7 @@
       <c r="A57" s="59"/>
       <c r="B57" s="117"/>
       <c r="C57" s="41" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D57" s="42"/>
       <c r="E57" s="43"/>
@@ -47959,18 +48065,18 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A60" s="59" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B60" s="117" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C60" s="107" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D60" s="99"/>
       <c r="E60" s="100"/>
       <c r="F60" s="28" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
@@ -48001,18 +48107,18 @@
     </row>
     <row r="62" s="1" customFormat="1" ht="150" customHeight="1" spans="1:13">
       <c r="A62" s="56" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C62" s="107" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D62" s="99"/>
       <c r="E62" s="100"/>
       <c r="F62" s="28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
@@ -48045,7 +48151,7 @@
       <c r="A64" s="59"/>
       <c r="B64" s="57"/>
       <c r="C64" s="41" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D64" s="42"/>
       <c r="E64" s="43"/>
@@ -48096,18 +48202,18 @@
     </row>
     <row r="67" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A67" s="83" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C67" s="107" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D67" s="99"/>
       <c r="E67" s="100"/>
       <c r="F67" s="28" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
@@ -48126,7 +48232,7 @@
       <c r="D68" s="111"/>
       <c r="E68" s="112"/>
       <c r="F68" s="128" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G68" s="128"/>
       <c r="H68" s="129"/>
@@ -48138,18 +48244,18 @@
     </row>
     <row r="69" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A69" s="83" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B69" s="57" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C69" s="107" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D69" s="99"/>
       <c r="E69" s="100"/>
       <c r="F69" s="28" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
@@ -48199,18 +48305,18 @@
     </row>
     <row r="72" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A72" s="83" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C72" s="107" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D72" s="99"/>
       <c r="E72" s="100"/>
       <c r="F72" s="28" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
@@ -48229,7 +48335,7 @@
       <c r="D73" s="111"/>
       <c r="E73" s="112"/>
       <c r="F73" s="128" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G73" s="128"/>
       <c r="H73" s="129"/>
@@ -51116,7 +51222,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -51181,7 +51287,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -51342,18 +51448,18 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="120" customHeight="1" spans="1:13">
       <c r="A15" s="23" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="27"/>
       <c r="F15" s="28" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -51367,7 +51473,7 @@
       <c r="A16" s="30"/>
       <c r="B16" s="31"/>
       <c r="C16" s="32" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="34"/>
@@ -51384,18 +51490,18 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A17" s="23" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="27"/>
       <c r="F17" s="28" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
@@ -51409,7 +51515,7 @@
       <c r="A18" s="30"/>
       <c r="B18" s="31"/>
       <c r="C18" s="32" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="34"/>
@@ -51426,18 +51532,18 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A19" s="23" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
       <c r="F19" s="28" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
@@ -51451,7 +51557,7 @@
       <c r="A20" s="30"/>
       <c r="B20" s="31"/>
       <c r="C20" s="38" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D20" s="39"/>
       <c r="E20" s="40"/>
@@ -51513,18 +51619,18 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A24" s="83" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C24" s="84" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D24" s="85"/>
       <c r="E24" s="85"/>
       <c r="F24" s="86" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G24" s="87"/>
       <c r="H24" s="87"/>
@@ -51538,7 +51644,7 @@
       <c r="A25" s="83"/>
       <c r="B25" s="57"/>
       <c r="C25" s="88" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D25" s="88"/>
       <c r="E25" s="88"/>
@@ -54457,7 +54563,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -54522,7 +54628,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -54683,18 +54789,18 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A15" s="23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="27"/>
       <c r="F15" s="28" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -54708,7 +54814,7 @@
       <c r="A16" s="30"/>
       <c r="B16" s="31"/>
       <c r="C16" s="32" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="34"/>
@@ -54725,18 +54831,18 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A17" s="23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="27"/>
       <c r="F17" s="28" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
@@ -54750,7 +54856,7 @@
       <c r="A18" s="30"/>
       <c r="B18" s="31"/>
       <c r="C18" s="32" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="34"/>
@@ -54767,13 +54873,13 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A19" s="23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
@@ -54792,7 +54898,7 @@
       <c r="A20" s="30"/>
       <c r="B20" s="31"/>
       <c r="C20" s="38" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D20" s="39"/>
       <c r="E20" s="40"/>
@@ -54854,18 +54960,18 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A24" s="23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="28" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -54879,7 +54985,7 @@
       <c r="A25" s="30"/>
       <c r="B25" s="31"/>
       <c r="C25" s="38" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="40"/>
@@ -54896,18 +55002,18 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="100.05" customHeight="1" spans="1:13">
       <c r="A26" s="56" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="27"/>
       <c r="F26" s="28" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
@@ -54953,18 +55059,18 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="100" customHeight="1" spans="1:13">
       <c r="A29" s="56" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="27"/>
       <c r="F29" s="28" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
